--- a/xlsx/海外领土_intext.xlsx
+++ b/xlsx/海外领土_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t>海外领土</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_海外领土</t>
+    <t>主权国家</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_海外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%B2%BB</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>領土</t>
+    <t>领土</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Law_enforcement_agency</t>
@@ -59,31 +59,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E5%A2%83%E7%AE%A1%E5%88%B6</t>
   </si>
   <si>
-    <t>邊境管制</t>
+    <t>边境管制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>政治權力</t>
+    <t>政治权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -101,31 +101,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%AF%E5%90%88</t>
   </si>
   <si>
-    <t>自由聯合</t>
+    <t>自由联合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>紐西蘭王國</t>
+    <t>纽西兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E9%82%A6</t>
   </si>
   <si>
-    <t>聯繫邦</t>
+    <t>联系邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
   </si>
   <si>
-    <t>聖赫勒拿</t>
+    <t>圣赫勒拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A3%AE%E6%9D%BE%E5%B2%9B</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -311,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%B0</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%82%A6_(%E7%BE%8E%E5%9B%BD)</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E5%B2%9B</t>
@@ -407,19 +407,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
@@ -455,31 +455,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>珊瑚海群島</t>
+    <t>珊瑚海群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%BE%B7%E5%B3%B6%E5%92%8C%E9%BA%A5%E5%85%8B%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>赫德島和麥克唐納群島</t>
+    <t>赫德岛和麦克唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%8D%97%E6%A5%B5%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>澳洲南極領地</t>
+    <t>澳洲南极领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>特別行政區</t>
+    <t>特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E7%8E%8B%E5%9B%BD</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E5%92%8C%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -641,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%8F%80%E9%A0%93%E5%B3%B6</t>
   </si>
   <si>
-    <t>克利珀頓島</t>
+    <t>克利珀顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -659,15 +659,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8B%E6%88%90%E5%9C%8B</t>
   </si>
   <si>
-    <t>構成國</t>
+    <t>构成国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭王國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E6%9C%AC%E5%9C%9F</t>
   </si>
   <si>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF</t>
   </si>
   <si>
-    <t>荷屬安地列斯</t>
+    <t>荷属安地列斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E8%8D%B7%E5%85%B0</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%B2%99%E5%B7%B4</t>
   </si>
   <si>
-    <t>荷屬沙巴</t>
+    <t>荷属沙巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%A4%E6%96%AF%E7%89%B9%E6%AD%87%E6%96%AF</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>非建制地區</t>
+    <t>非建制地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E6%9D%A1%E7%BA%A6</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6</t>
   </si>
   <si>
-    <t>揚馬延</t>
+    <t>扬马延</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E5%B0%94%E5%85%B0%E9%83%A1</t>
@@ -761,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -797,25 +794,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
@@ -887,9 +881,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
   </si>
   <si>
-    <t>丹麦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
@@ -1133,9 +1124,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
   </si>
   <si>
-    <t>扬马延</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%81%A9%E5%B2%9B</t>
   </si>
   <si>
@@ -1151,9 +1139,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
   </si>
   <si>
@@ -1187,9 +1172,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
   </si>
   <si>
@@ -1211,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
@@ -1277,19 +1259,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -1319,19 +1301,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%A3%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾代夫</t>
+    <t>马尔代夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
@@ -1349,21 +1331,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E7%88%BE</t>
   </si>
   <si>
-    <t>卡塔爾</t>
+    <t>卡塔尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
@@ -1379,13 +1358,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1397,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
@@ -1415,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
   </si>
   <si>
-    <t>阿聯酋</t>
+    <t>阿联酋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1433,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80</t>
   </si>
   <si>
-    <t>也門</t>
+    <t>也门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
@@ -1445,43 +1424,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>台海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -1493,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
+    <t>阿尔及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
@@ -1811,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>索馬利蘭</t>
+    <t>索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%92%92%E5%93%88%E6%8B%89%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1877,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
@@ -1901,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>格林納達</t>
+    <t>格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
@@ -1937,9 +1916,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
   </si>
   <si>
@@ -1973,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%B4%8D%E4%B8%81%E6%96%AF</t>
   </si>
   <si>
-    <t>聖文森特和格林納丁斯</t>
+    <t>圣文森特和格林纳丁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
@@ -2009,39 +1985,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%9E%E5%9C%A3%E9%A9%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷属圣马丁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>美属维尔京群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6</t>
   </si>
   <si>
@@ -2117,15 +2078,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>科科斯（基林）群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
@@ -2135,37 +2090,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B</t>
   </si>
   <si>
-    <t>关岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3</t>
   </si>
   <si>
-    <t>托克劳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9B%BE%E7%BA%B3</t>
   </si>
   <si>
-    <t>瓦利斯和富图纳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>英國海外領土</t>
+    <t>英国海外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -2177,7 +2117,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
@@ -5660,7 +5600,7 @@
         <v>215</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5686,10 +5626,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5715,10 +5655,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5744,10 +5684,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5773,10 +5713,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5802,10 +5742,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5831,10 +5771,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5860,10 +5800,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5889,10 +5829,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5918,10 +5858,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5947,10 +5887,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -5976,10 +5916,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6005,10 +5945,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6034,10 +5974,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6063,10 +6003,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6092,10 +6032,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6121,10 +6061,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -6150,10 +6090,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>7</v>
@@ -6179,10 +6119,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -6208,10 +6148,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>16</v>
@@ -6237,10 +6177,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>10</v>
@@ -6266,10 +6206,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>8</v>
@@ -6295,10 +6235,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>6</v>
@@ -6324,10 +6264,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>7</v>
@@ -6353,10 +6293,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -6382,10 +6322,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6411,10 +6351,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6440,10 +6380,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6469,10 +6409,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6498,10 +6438,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6527,10 +6467,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6556,10 +6496,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6585,10 +6525,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6614,10 +6554,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6643,10 +6583,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6672,10 +6612,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6701,10 +6641,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6730,10 +6670,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6759,10 +6699,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6788,10 +6728,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6817,10 +6757,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6846,10 +6786,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6875,10 +6815,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6904,10 +6844,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6933,10 +6873,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6962,10 +6902,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6991,10 +6931,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7020,10 +6960,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7049,10 +6989,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7078,10 +7018,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7107,10 +7047,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7136,10 +7076,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7165,10 +7105,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7194,10 +7134,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7223,10 +7163,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7252,10 +7192,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7310,10 +7250,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7339,10 +7279,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7368,10 +7308,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7397,10 +7337,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7426,10 +7366,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7455,10 +7395,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7484,10 +7424,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7513,10 +7453,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7542,10 +7482,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7571,10 +7511,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7600,10 +7540,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7629,10 +7569,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7658,10 +7598,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7716,10 +7656,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7745,10 +7685,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7774,10 +7714,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7803,10 +7743,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7832,10 +7772,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7861,10 +7801,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7890,10 +7830,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7919,10 +7859,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7948,10 +7888,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8006,10 +7946,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8064,10 +8004,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8093,10 +8033,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8122,10 +8062,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>8</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8151,10 +8091,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8180,10 +8120,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8209,10 +8149,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8238,10 +8178,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8267,10 +8207,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8296,10 +8236,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8325,10 +8265,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8354,10 +8294,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8383,10 +8323,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8412,10 +8352,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8441,10 +8381,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8470,10 +8410,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8499,10 +8439,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8528,10 +8468,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8557,10 +8497,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>5</v>
@@ -8586,10 +8526,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8615,10 +8555,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8644,10 +8584,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8673,10 +8613,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8702,10 +8642,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8731,10 +8671,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8760,10 +8700,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8789,10 +8729,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8818,10 +8758,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8847,10 +8787,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8876,10 +8816,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8905,10 +8845,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8934,10 +8874,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8963,10 +8903,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8992,10 +8932,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9021,10 +8961,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9050,10 +8990,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9079,10 +9019,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9108,10 +9048,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9137,10 +9077,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>331</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9166,10 +9106,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9195,10 +9135,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9224,10 +9164,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9253,10 +9193,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9282,10 +9222,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9311,10 +9251,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9340,10 +9280,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9369,10 +9309,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9398,10 +9338,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9427,10 +9367,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9456,10 +9396,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9485,10 +9425,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9514,10 +9454,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F241" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9543,10 +9483,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9572,10 +9512,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9601,10 +9541,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9630,10 +9570,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9659,10 +9599,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9688,10 +9628,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9717,10 +9657,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9746,10 +9686,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9775,10 +9715,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9804,10 +9744,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9833,10 +9773,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9862,10 +9802,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9891,10 +9831,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9920,10 +9860,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9949,10 +9889,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9978,10 +9918,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10007,10 +9947,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10036,10 +9976,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10065,10 +10005,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10094,10 +10034,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10123,10 +10063,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10152,10 +10092,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10181,10 +10121,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10210,10 +10150,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10239,10 +10179,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>4</v>
@@ -10268,10 +10208,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10297,10 +10237,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10326,10 +10266,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10355,10 +10295,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10384,10 +10324,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10413,10 +10353,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10442,10 +10382,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10471,10 +10411,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10500,10 +10440,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10529,10 +10469,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10558,10 +10498,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10587,10 +10527,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10616,10 +10556,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10645,10 +10585,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10674,10 +10614,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>4</v>
@@ -10703,10 +10643,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10732,10 +10672,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10761,10 +10701,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10790,10 +10730,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10819,10 +10759,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10848,10 +10788,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10877,10 +10817,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10906,10 +10846,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10935,10 +10875,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10964,10 +10904,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10993,10 +10933,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11022,10 +10962,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11051,10 +10991,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11080,10 +11020,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11109,10 +11049,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11138,10 +11078,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11167,10 +11107,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11196,10 +11136,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11225,10 +11165,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11254,10 +11194,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11283,10 +11223,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11312,10 +11252,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11341,10 +11281,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F304" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11370,10 +11310,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11399,10 +11339,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11428,10 +11368,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11457,10 +11397,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11486,10 +11426,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11515,10 +11455,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11544,10 +11484,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11573,10 +11513,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11602,10 +11542,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11631,10 +11571,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11660,10 +11600,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11689,10 +11629,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11718,10 +11658,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11747,10 +11687,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11776,10 +11716,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11805,10 +11745,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11834,10 +11774,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G321" t="n">
         <v>3</v>
@@ -11863,10 +11803,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11892,10 +11832,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11921,10 +11861,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11950,10 +11890,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11979,10 +11919,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>102</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12008,10 +11948,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12037,10 +11977,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12066,10 +12006,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12095,10 +12035,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12124,10 +12064,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12153,10 +12093,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12182,10 +12122,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12211,10 +12151,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12240,10 +12180,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12269,10 +12209,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12298,10 +12238,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12327,10 +12267,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12356,10 +12296,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>66</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12385,10 +12325,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>225</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12414,10 +12354,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>223</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12443,10 +12383,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>112</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12472,10 +12412,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>62</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12501,10 +12441,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12530,10 +12470,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12559,10 +12499,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12588,10 +12528,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12617,10 +12557,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12646,10 +12586,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12675,10 +12615,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12704,10 +12644,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -12733,10 +12673,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12762,10 +12702,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12791,10 +12731,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12820,10 +12760,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12878,10 +12818,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F357" t="s">
-        <v>700</v>
+        <v>36</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12907,10 +12847,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="F358" t="s">
-        <v>702</v>
+        <v>146</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12936,10 +12876,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F359" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12965,10 +12905,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F360" t="s">
-        <v>706</v>
+        <v>114</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12994,10 +12934,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="F361" t="s">
-        <v>708</v>
+        <v>200</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13023,10 +12963,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="F362" t="s">
-        <v>710</v>
+        <v>106</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13052,10 +12992,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="F363" t="s">
-        <v>712</v>
+        <v>40</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13081,10 +13021,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="F364" t="s">
-        <v>714</v>
+        <v>198</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13110,10 +13050,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>5</v>
@@ -13226,10 +13166,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13313,10 +13253,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="F372" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13342,10 +13282,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="F373" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13371,10 +13311,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="F374" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G374" t="n">
         <v>5</v>
@@ -13400,10 +13340,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="F375" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
